--- a/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
+++ b/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nblakely\Desktop\Northside\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSO\Hayes Integrations\DEV\LDAP_UserProcess\LDAP_UserProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>PURCHASE_VIEW</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>Site View users will have Permissions updated - only those permissions in the file will be retained</t>
+  </si>
+  <si>
+    <t>All current users will be deactivated</t>
   </si>
 </sst>
 </file>
@@ -508,6 +511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -543,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,21 +845,26 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>110</v>
       </c>
     </row>

--- a/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
+++ b/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\HayesIntegration\DEV\LDAP_UserProcess\LDAP_UserProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{758521CB-8FB5-48A4-A1D3-A3A9F6301BBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01630E7A-3E62-411F-9F0E-81D90BE6F318}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25650" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
   <si>
     <t>PURCHASE_VIEW</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>View Access for tags grid</t>
+  </si>
+  <si>
+    <t>HARDWARE_EDIT</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>112</v>

--- a/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
+++ b/DEV/LDAP_UserProcess/LDAP_UserProcess/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\HayesIntegration\DEV\LDAP_UserProcess\LDAP_UserProcess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nblakely\Desktop\Miscellaneous\Pasco LDAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01630E7A-3E62-411F-9F0E-81D90BE6F318}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38BC3431-AA34-4689-AFE8-66FF44A836DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25650" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,8 @@
     <sheet name="General Outline" sheetId="3" r:id="rId1"/>
     <sheet name="Permission Explanation" sheetId="1" r:id="rId2"/>
     <sheet name="File Format" sheetId="2" r:id="rId3"/>
+    <sheet name="FunctionUserRelation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'File Format'!$A$1:$AH$12</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="153">
   <si>
     <t>PURCHASE_VIEW</t>
   </si>
@@ -101,6 +99,63 @@
     <t>SITE_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">USER FUNCTION </t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ALL DISTRICT USERS (ADMIN/ADMIN OR ADMIN USER) HAS PERMISSIONS FOR ALL BY DEFAULT</t>
+  </si>
+  <si>
+    <t>Edit a Tag</t>
+  </si>
+  <si>
+    <t>View the Catalog</t>
+  </si>
+  <si>
+    <t>View Purchase Information</t>
+  </si>
+  <si>
+    <t>Edit Purchase Information</t>
+  </si>
+  <si>
+    <t>View Room Information</t>
+  </si>
+  <si>
+    <t>Edit Room Information</t>
+  </si>
+  <si>
+    <t>Quick Collect from a Room</t>
+  </si>
+  <si>
+    <t>Transfer from Room to Room</t>
+  </si>
+  <si>
+    <t>Initiate a Transfer</t>
+  </si>
+  <si>
+    <t>Receive a Transfer</t>
+  </si>
+  <si>
+    <t>View Staff Information</t>
+  </si>
+  <si>
+    <t>Edit Staff Information</t>
+  </si>
+  <si>
+    <t>View Student Information</t>
+  </si>
+  <si>
+    <t>Edit Student Information</t>
+  </si>
+  <si>
+    <t>Issue Assets to Students</t>
+  </si>
+  <si>
+    <t>Issue Assets  to Staff</t>
+  </si>
+  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -110,6 +165,33 @@
     <t>site@user.com</t>
   </si>
   <si>
+    <t>Only available for Site Admin</t>
+  </si>
+  <si>
+    <t>Purchase View must be true if Purchase Edit is true</t>
+  </si>
+  <si>
+    <t>Room View must be true if Room Edit is true</t>
+  </si>
+  <si>
+    <t>Staff View must be true if Staff Edit is true</t>
+  </si>
+  <si>
+    <t>Student View must be true if Student Edit is true</t>
+  </si>
+  <si>
+    <t>Student View must be true if Issue to Student is true</t>
+  </si>
+  <si>
+    <t>Staff View must be true if Issue to Staff is true</t>
+  </si>
+  <si>
+    <t>Room View must be true if Room Quick Collect is true</t>
+  </si>
+  <si>
+    <t>Room View must be true if Room to Room Transfer is true</t>
+  </si>
+  <si>
     <t>005</t>
   </si>
   <si>
@@ -164,6 +246,9 @@
     <t>9923</t>
   </si>
   <si>
+    <t>invalidemila</t>
+  </si>
+  <si>
     <t>invalidemail</t>
   </si>
   <si>
@@ -206,9 +291,6 @@
     <t>siteuser7</t>
   </si>
   <si>
-    <t>A file called "UserList.csv" will be placed on the SFTP "NorthsideISD" location in the "User List" folder</t>
-  </si>
-  <si>
     <t>Each of the permissions that a user has should be noted with a "1" in the appropriate field</t>
   </si>
   <si>
@@ -281,6 +363,114 @@
     <t>All current users will be deactivated</t>
   </si>
   <si>
+    <t>A file called "UserList.csv" will be placed on the client's SFTP location in the "User List" folder</t>
+  </si>
+  <si>
+    <t>View Access for Purchase</t>
+  </si>
+  <si>
+    <t>View Access for Catalog</t>
+  </si>
+  <si>
+    <t>HARWARE_EDIT</t>
+  </si>
+  <si>
+    <t>Edit Access for Catalog</t>
+  </si>
+  <si>
+    <t>View Access for Staff</t>
+  </si>
+  <si>
+    <t>Edit Access for Staff</t>
+  </si>
+  <si>
+    <t>Issue to Staff Access</t>
+  </si>
+  <si>
+    <t>View Access for Room</t>
+  </si>
+  <si>
+    <t>Edit access for Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Quick Collect </t>
+  </si>
+  <si>
+    <t>View Access for Student</t>
+  </si>
+  <si>
+    <t>Edit Access for Student</t>
+  </si>
+  <si>
+    <t>Issue to Student Access</t>
+  </si>
+  <si>
+    <t>Room to Room transfer access</t>
+  </si>
+  <si>
+    <t>Edit access for Tag</t>
+  </si>
+  <si>
+    <t>Initiate access for Transfer</t>
+  </si>
+  <si>
+    <t>Receive access for transfer</t>
+  </si>
+  <si>
+    <t>TAGS_GRID_VIEW</t>
+  </si>
+  <si>
+    <t>View Access for tags grid</t>
+  </si>
+  <si>
+    <t>TAGS_GRID_BULK_EDIT</t>
+  </si>
+  <si>
+    <t>Bulk Edit access in Tags Grid</t>
+  </si>
+  <si>
+    <t>TAGS_GRID_QUICK_TRANSFER</t>
+  </si>
+  <si>
+    <t>Quick Transfer access in Tags Grid</t>
+  </si>
+  <si>
+    <t>ARCHIVE_CATALOG</t>
+  </si>
+  <si>
+    <t>Catalog Access to District User</t>
+  </si>
+  <si>
+    <t>ARCHIVE_INVENTORY</t>
+  </si>
+  <si>
+    <t>Inventory Access to District User</t>
+  </si>
+  <si>
+    <t>ARCHIVE_STAFF</t>
+  </si>
+  <si>
+    <t>Staff Access to District User</t>
+  </si>
+  <si>
+    <t>ARCHIVE_STUDENT</t>
+  </si>
+  <si>
+    <t>Student Access to District User</t>
+  </si>
+  <si>
+    <t>SITE_VIEW</t>
+  </si>
+  <si>
+    <t>View Access for Site</t>
+  </si>
+  <si>
+    <t>SITE_EDIT</t>
+  </si>
+  <si>
+    <t>Edit Access for Site</t>
+  </si>
+  <si>
     <t>Available Functions</t>
   </si>
   <si>
@@ -296,118 +486,7 @@
     <t>Site User</t>
   </si>
   <si>
-    <t>Current Used Function</t>
-  </si>
-  <si>
-    <t>ARCHIVE_CATALOG</t>
-  </si>
-  <si>
-    <t>Catalog Access to District User</t>
-  </si>
-  <si>
-    <t>ARCHIVE_INVENTORY</t>
-  </si>
-  <si>
-    <t>Inventory Access to District User</t>
-  </si>
-  <si>
-    <t>ARCHIVE_STAFF</t>
-  </si>
-  <si>
-    <t>Staff Access to District User</t>
-  </si>
-  <si>
-    <t>ARCHIVE_STUDENT</t>
-  </si>
-  <si>
-    <t>Student Access to District User</t>
-  </si>
-  <si>
-    <t>View Access for Catalog</t>
-  </si>
-  <si>
-    <t>HARWARE_EDIT</t>
-  </si>
-  <si>
-    <t>Edit Access for Catalog</t>
-  </si>
-  <si>
-    <t>Issue to Staff Access</t>
-  </si>
-  <si>
-    <t>Issue to Student Access</t>
-  </si>
-  <si>
     <t>Edit access for Purchase</t>
-  </si>
-  <si>
-    <t>View Access for Purchase</t>
-  </si>
-  <si>
-    <t>Edit access for Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room Quick Collect </t>
-  </si>
-  <si>
-    <t>Room to Room transfer access</t>
-  </si>
-  <si>
-    <t>View Access for Room</t>
-  </si>
-  <si>
-    <t>SITE_EDIT</t>
-  </si>
-  <si>
-    <t>Edit Access for Site</t>
-  </si>
-  <si>
-    <t>Initiate access for Transfer</t>
-  </si>
-  <si>
-    <t>Receive access for transfer</t>
-  </si>
-  <si>
-    <t>SITE_VIEW</t>
-  </si>
-  <si>
-    <t>View Access for Site</t>
-  </si>
-  <si>
-    <t>Edit Access for Staff</t>
-  </si>
-  <si>
-    <t>View Access for Staff</t>
-  </si>
-  <si>
-    <t>Edit Access for Student</t>
-  </si>
-  <si>
-    <t>View Access for Student</t>
-  </si>
-  <si>
-    <t>Edit access for Tag</t>
-  </si>
-  <si>
-    <t>TAGS_GRID_BULK_EDIT</t>
-  </si>
-  <si>
-    <t>Bulk Edit access in Tags Grid</t>
-  </si>
-  <si>
-    <t>TAGS_GRID_QUICK_TRANSFER</t>
-  </si>
-  <si>
-    <t>Quick Transfer access in Tags Grid</t>
-  </si>
-  <si>
-    <t>TAGS_GRID_VIEW</t>
-  </si>
-  <si>
-    <t>View Access for tags grid</t>
-  </si>
-  <si>
-    <t>HARDWARE_EDIT</t>
   </si>
 </sst>
 </file>
@@ -812,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,127 +902,127 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -953,383 +1032,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,10 +1309,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,17 +1342,21 @@
     <col min="20" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="16.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1448,324 +1426,312 @@
       <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1819,18 +1785,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1884,92 +1850,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2023,21 +1989,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2091,21 +2057,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2159,40 +2125,36 @@
         <v>1</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -2205,4 +2167,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C372F-EED5-44C8-8183-FC5DEB069F37}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>